--- a/docs/CodeSystem-CSIndicecomorbilidad.xlsx
+++ b/docs/CodeSystem-CSIndicecomorbilidad.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Indicecomorbilidad</t>
+    <t>Indice Comorbilidad</t>
   </si>
   <si>
     <t>Status</t>

--- a/docs/CodeSystem-CSIndicecomorbilidad.xlsx
+++ b/docs/CodeSystem-CSIndicecomorbilidad.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/CodeSystem-CSIndicecomorbilidad.xlsx
+++ b/docs/CodeSystem-CSIndicecomorbilidad.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/CodeSystem-CSIndicecomorbilidad.xlsx
+++ b/docs/CodeSystem-CSIndicecomorbilidad.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -141,7 +141,7 @@
     <t>G0</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin Riesgo, sin condiciones crónicas o riesgo no identificado </t>
+    <t>Sin Riesgo, sin condiciones crónicas o riesgo no identificado</t>
   </si>
   <si>
     <t>G1</t>
